--- a/biology/Médecine/1324_en_santé_et_médecine/1324_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1324_en_santé_et_médecine/1324_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1324_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1324_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1324 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1324_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1324_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3 août : charte de fondation du prieuré de Dinard, édifié à l'emplacement de l'hôpital Bréchet et confié par Geoffroy III, seigneur de Montfort, aux trinitaires, à charge pour eux de « tenir hospitalité aux pauvres de l'un et l'autre sexe, aux pèlerins et passants[2],[3] ».
-Fondation par Jacques de Trith du refuge du Petit-Saint-Jacques, à Saint-Omer, en Artois, destiné à l'origine à l'accueil des pèlerins, devenu hôpital Saint-Jacques, absorbé au XVIIIe siècle par l'hôpital général, transformé en hospice puis en hôpital militaire, et actuellement maison de retraite dite « du Hainaut »[4].
-L'hôpital Saint-Jacques (St. James's Hospital) pour les lépreux est mentionné à Ipswich dans le Suffolk en Angleterre[5].
-Les règlements de police de Laon, en Île-de-France, ordonnent que « tout porc pris à vagabonder dans les rues de la ville sera […] aussitôt livré à Saint-Ladre, pour la nourriture des lépreux », parce qu'on prête à la viande de cet animal, et surtout à sa graisse, des vertus curatives contre la lèpre[6].
-La duchesse de Bourgogne, Jeanne de France, cède à l'hôpital du Saint-Esprit de Gray en Franche-Comté les droits attachés à son four banal de Velesmes, permettant ainsi aux frères « d'exercer une pression économique[7] » sur les paysans en leur imposant l'usage du four et en prélevant des amendes sur les contrevenants.
-1324-1325 : Ameline, miresse à Paris, est poursuivie pour exercice illégal de la médecine[8].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>3 août : charte de fondation du prieuré de Dinard, édifié à l'emplacement de l'hôpital Bréchet et confié par Geoffroy III, seigneur de Montfort, aux trinitaires, à charge pour eux de « tenir hospitalité aux pauvres de l'un et l'autre sexe, aux pèlerins et passants, ».
+Fondation par Jacques de Trith du refuge du Petit-Saint-Jacques, à Saint-Omer, en Artois, destiné à l'origine à l'accueil des pèlerins, devenu hôpital Saint-Jacques, absorbé au XVIIIe siècle par l'hôpital général, transformé en hospice puis en hôpital militaire, et actuellement maison de retraite dite « du Hainaut ».
+L'hôpital Saint-Jacques (St. James's Hospital) pour les lépreux est mentionné à Ipswich dans le Suffolk en Angleterre.
+Les règlements de police de Laon, en Île-de-France, ordonnent que « tout porc pris à vagabonder dans les rues de la ville sera […] aussitôt livré à Saint-Ladre, pour la nourriture des lépreux », parce qu'on prête à la viande de cet animal, et surtout à sa graisse, des vertus curatives contre la lèpre.
+La duchesse de Bourgogne, Jeanne de France, cède à l'hôpital du Saint-Esprit de Gray en Franche-Comté les droits attachés à son four banal de Velesmes, permettant ainsi aux frères « d'exercer une pression économique » sur les paysans en leur imposant l'usage du four et en prélevant des amendes sur les contrevenants.
+1324-1325 : Ameline, miresse à Paris, est poursuivie pour exercice illégal de la médecine.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1324_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1324_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1324-1349 : Abraham ben David Caslari, de Besalu, dans la province de Gérone en Italie, compose quatre traités de médecine : deux sur les fièvres, un sur les règles pour saigner, et une autre intitulé Celui qui sustente dans la maladie[8].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1324-1349 : Abraham ben David Caslari, de Besalu, dans la province de Gérone en Italie, compose quatre traités de médecine : deux sur les fièvres, un sur les règles pour saigner, et une autre intitulé Celui qui sustente dans la maladie.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1324_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1324_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,14 +592,16 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. Jacques Albini, médecin communal de Moncalieri, sa ville natale, dans le Piémont en Italie[8].
-Fl. Aimon de Pinerolio, médecin appelé à Montmélian à la cour d'Édouard le Libéral, comte de Savoie[8].
-Fl. Cauteronus, barbier de Jean Ier, comte de Forez[8].
-Fl. Jean de Capite Vilario, maître de l'université de médecine de Montpellier[8].
-1324-1326 : fl. Jean de Charny, barbier à Paris[8].
-1324-1332 : fl. Jacques Egidii (Gilles de Marseille), chancelier de l'université de médecine de Montpellier[8].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. Jacques Albini, médecin communal de Moncalieri, sa ville natale, dans le Piémont en Italie.
+Fl. Aimon de Pinerolio, médecin appelé à Montmélian à la cour d'Édouard le Libéral, comte de Savoie.
+Fl. Cauteronus, barbier de Jean Ier, comte de Forez.
+Fl. Jean de Capite Vilario, maître de l'université de médecine de Montpellier.
+1324-1326 : fl. Jean de Charny, barbier à Paris.
+1324-1332 : fl. Jacques Egidii (Gilles de Marseille), chancelier de l'université de médecine de Montpellier.</t>
         </is>
       </c>
     </row>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1324_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1324_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,9 +629,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Avant le 28 janvier : Bertrand Portalis (date de naissance inconnue), chancelier de l'université de médecine de Montpellier du 23 avril 1323 jusqu'à sa mort à Avignon[8].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Avant le 28 janvier : Bertrand Portalis (date de naissance inconnue), chancelier de l'université de médecine de Montpellier du 23 avril 1323 jusqu'à sa mort à Avignon.</t>
         </is>
       </c>
     </row>
